--- a/data/purchase2526.xlsx
+++ b/data/purchase2526.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE8753-5E46-465A-8868-6A666307E2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C6663-FEDC-486A-87E9-7B223EB18D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5491" uniqueCount="384">
   <si>
     <t>State Office</t>
   </si>
@@ -1110,6 +1110,66 @@
   </si>
   <si>
     <t>SERVO HONDA JOSH-20 X 0.9 L</t>
+  </si>
+  <si>
+    <t>1-1460847192025</t>
+  </si>
+  <si>
+    <t>7002512310</t>
+  </si>
+  <si>
+    <t>1-1444836513115</t>
+  </si>
+  <si>
+    <t>7001648719</t>
+  </si>
+  <si>
+    <t>SERVO 4T XTRA</t>
+  </si>
+  <si>
+    <t>2828229</t>
+  </si>
+  <si>
+    <t>SERVO 4T XTRA-20 X 1 L PROMO</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO DEO ACEA C5</t>
+  </si>
+  <si>
+    <t>7421234</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE</t>
+  </si>
+  <si>
+    <t>1-1453847244955</t>
+  </si>
+  <si>
+    <t>7002060169</t>
+  </si>
+  <si>
+    <t>1-1457211695392</t>
+  </si>
+  <si>
+    <t>7002229346</t>
+  </si>
+  <si>
+    <t>1-1456630626689</t>
+  </si>
+  <si>
+    <t>7002211130</t>
+  </si>
+  <si>
+    <t>1-1460830767856</t>
+  </si>
+  <si>
+    <t>7002510823</t>
+  </si>
+  <si>
+    <t>1-1453837452258</t>
+  </si>
+  <si>
+    <t>7002058807</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1191,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1146,6 +1206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F4FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1200,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1224,6 +1290,21 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1564,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK255"/>
+  <dimension ref="A1:AK304"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q292" workbookViewId="0">
+      <selection activeCell="Y301" sqref="Y301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,7 +1687,7 @@
     <col min="35" max="35" width="9.33203125" customWidth="1"/>
     <col min="36" max="36" width="10.109375" customWidth="1"/>
     <col min="37" max="37" width="8.21875" customWidth="1"/>
-    <col min="38" max="38" width="0.77734375" customWidth="1"/>
+    <col min="38" max="38" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
@@ -29318,116 +29399,5496 @@
       </c>
     </row>
     <row r="255" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="E255" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="F255" s="2" t="s">
+      <c r="F255" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G255" s="2" t="s">
+      <c r="G255" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H255" s="2" t="s">
+      <c r="H255" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="I255" s="2" t="s">
+      <c r="I255" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J255" s="2" t="s">
+      <c r="J255" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K255" s="2" t="s">
+      <c r="K255" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="L255" s="2" t="s">
+      <c r="L255" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="N255" s="4">
+      <c r="N255" s="10">
         <v>20</v>
       </c>
-      <c r="O255" s="2" t="s">
+      <c r="O255" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P255" s="2" t="s">
+      <c r="P255" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Q255" s="2" t="s">
+      <c r="Q255" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="R255" s="2" t="s">
+      <c r="R255" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="S255" s="2" t="s">
+      <c r="S255" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="T255" s="5">
+      <c r="T255" s="11">
         <v>45990</v>
       </c>
-      <c r="U255" s="6">
+      <c r="U255" s="10">
         <v>10</v>
       </c>
-      <c r="V255" s="6">
+      <c r="V255" s="10">
         <v>200</v>
       </c>
-      <c r="W255" s="6">
+      <c r="W255" s="10">
         <v>53360</v>
       </c>
-      <c r="X255" s="6">
+      <c r="X255" s="10">
         <v>34684</v>
       </c>
-      <c r="Y255" s="6">
+      <c r="Y255" s="10">
         <v>41872.800000000003</v>
       </c>
-      <c r="Z255" s="6">
+      <c r="Z255" s="10">
         <v>-14200</v>
       </c>
-      <c r="AA255" s="7"/>
-      <c r="AB255" s="6">
+      <c r="AA255" s="10"/>
+      <c r="AB255" s="10">
         <v>-2964.59</v>
       </c>
-      <c r="AC255" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD255" s="7"/>
-      <c r="AE255" s="6">
+      <c r="AC255" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD255" s="12"/>
+      <c r="AE255" s="10">
         <v>-494.16</v>
       </c>
-      <c r="AF255" s="6">
+      <c r="AF255" s="10">
         <v>24214.05</v>
       </c>
-      <c r="AG255" s="6">
+      <c r="AG255" s="10">
         <v>28572.58</v>
       </c>
-      <c r="AH255" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI255" s="6">
+      <c r="AH255" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI255" s="10">
         <v>4358.53</v>
       </c>
-      <c r="AJ255" s="6">
+      <c r="AJ255" s="10">
         <v>28572.58</v>
       </c>
-      <c r="AK255" s="8">
+      <c r="AK255" s="13">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J256" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K256" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L256" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M256" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N256" s="4">
+        <v>14</v>
+      </c>
+      <c r="O256" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P256" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q256" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R256" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S256" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T256" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U256" s="6">
+        <v>8</v>
+      </c>
+      <c r="V256" s="6">
+        <v>112</v>
+      </c>
+      <c r="W256" s="6">
+        <v>50400</v>
+      </c>
+      <c r="X256" s="6">
+        <v>32760</v>
+      </c>
+      <c r="Y256" s="6">
+        <v>34831.199999999997</v>
+      </c>
+      <c r="Z256" s="6">
+        <v>-2240</v>
+      </c>
+      <c r="AA256" s="6"/>
+      <c r="AB256" s="6">
+        <v>-2260.54</v>
+      </c>
+      <c r="AC256" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD256" s="7"/>
+      <c r="AE256" s="6">
+        <v>-606.61</v>
+      </c>
+      <c r="AF256" s="6">
+        <v>29724.05</v>
+      </c>
+      <c r="AG256" s="6">
+        <v>35074.379999999997</v>
+      </c>
+      <c r="AH256" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI256" s="6">
+        <v>5350.33</v>
+      </c>
+      <c r="AJ256" s="6">
+        <v>35074.379999999997</v>
+      </c>
+      <c r="AK256" s="8">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="257" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J257" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K257" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L257" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M257" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N257" s="4">
+        <v>10</v>
+      </c>
+      <c r="O257" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P257" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q257" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="R257" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="S257" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T257" s="5">
+        <v>46025</v>
+      </c>
+      <c r="U257" s="6">
+        <v>30</v>
+      </c>
+      <c r="V257" s="6">
+        <v>300</v>
+      </c>
+      <c r="W257" s="6">
+        <v>20100</v>
+      </c>
+      <c r="X257" s="6">
+        <v>13065</v>
+      </c>
+      <c r="Y257" s="6">
+        <v>14904.7</v>
+      </c>
+      <c r="Z257" s="7"/>
+      <c r="AA257" s="7"/>
+      <c r="AB257" s="6">
+        <v>-527.63</v>
+      </c>
+      <c r="AC257" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="7"/>
+      <c r="AE257" s="6">
+        <v>-287.54000000000002</v>
+      </c>
+      <c r="AF257" s="6">
+        <v>14089.53</v>
+      </c>
+      <c r="AG257" s="6">
+        <v>16625.650000000001</v>
+      </c>
+      <c r="AH257" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI257" s="6">
+        <v>2536.12</v>
+      </c>
+      <c r="AJ257" s="6">
+        <v>16625.650000000001</v>
+      </c>
+      <c r="AK257" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="258" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L258" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M258" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N258" s="4">
+        <v>10</v>
+      </c>
+      <c r="O258" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P258" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q258" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R258" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S258" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T258" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U258" s="6">
+        <v>40</v>
+      </c>
+      <c r="V258" s="6">
+        <v>400</v>
+      </c>
+      <c r="W258" s="6">
+        <v>26800</v>
+      </c>
+      <c r="X258" s="6">
+        <v>17420</v>
+      </c>
+      <c r="Y258" s="6">
+        <v>19872.939999999999</v>
+      </c>
+      <c r="Z258" s="7"/>
+      <c r="AA258" s="7"/>
+      <c r="AB258" s="6">
+        <v>-703.5</v>
+      </c>
+      <c r="AC258" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD258" s="7"/>
+      <c r="AE258" s="6">
+        <v>-383.39</v>
+      </c>
+      <c r="AF258" s="6">
+        <v>18786.05</v>
+      </c>
+      <c r="AG258" s="6">
+        <v>22167.54</v>
+      </c>
+      <c r="AH258" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI258" s="6">
+        <v>3381.49</v>
+      </c>
+      <c r="AJ258" s="6">
+        <v>22167.54</v>
+      </c>
+      <c r="AK258" s="8">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="259" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K259" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L259" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M259" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N259" s="4">
+        <v>20</v>
+      </c>
+      <c r="O259" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P259" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q259" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="R259" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="S259" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T259" s="5">
+        <v>46025</v>
+      </c>
+      <c r="U259" s="6">
+        <v>50</v>
+      </c>
+      <c r="V259" s="6">
+        <v>1000</v>
+      </c>
+      <c r="W259" s="6">
+        <v>65000</v>
+      </c>
+      <c r="X259" s="6">
+        <v>42250</v>
+      </c>
+      <c r="Y259" s="6">
+        <v>48199.29</v>
+      </c>
+      <c r="Z259" s="7"/>
+      <c r="AA259" s="7"/>
+      <c r="AB259" s="6">
+        <v>-1706.25</v>
+      </c>
+      <c r="AC259" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD259" s="7"/>
+      <c r="AE259" s="6">
+        <v>-929.86</v>
+      </c>
+      <c r="AF259" s="6">
+        <v>45563.18</v>
+      </c>
+      <c r="AG259" s="6">
+        <v>53764.55</v>
+      </c>
+      <c r="AH259" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI259" s="6">
+        <v>8201.3700000000008</v>
+      </c>
+      <c r="AJ259" s="6">
+        <v>53764.55</v>
+      </c>
+      <c r="AK259" s="8">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K260" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L260" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M260" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N260" s="4">
+        <v>20</v>
+      </c>
+      <c r="O260" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P260" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q260" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R260" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S260" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T260" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U260" s="6">
+        <v>40</v>
+      </c>
+      <c r="V260" s="6">
+        <v>800</v>
+      </c>
+      <c r="W260" s="6">
+        <v>52000</v>
+      </c>
+      <c r="X260" s="6">
+        <v>33800</v>
+      </c>
+      <c r="Y260" s="6">
+        <v>38559.43</v>
+      </c>
+      <c r="Z260" s="7"/>
+      <c r="AA260" s="7"/>
+      <c r="AB260" s="6">
+        <v>-1365</v>
+      </c>
+      <c r="AC260" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD260" s="7"/>
+      <c r="AE260" s="6">
+        <v>-743.89</v>
+      </c>
+      <c r="AF260" s="6">
+        <v>36450.54</v>
+      </c>
+      <c r="AG260" s="6">
+        <v>43011.64</v>
+      </c>
+      <c r="AH260" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI260" s="6">
+        <v>6561.1</v>
+      </c>
+      <c r="AJ260" s="6">
+        <v>43011.64</v>
+      </c>
+      <c r="AK260" s="8">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K261" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L261" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M261" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N261" s="4">
+        <v>20</v>
+      </c>
+      <c r="O261" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P261" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q261" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R261" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S261" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T261" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U261" s="6">
+        <v>10</v>
+      </c>
+      <c r="V261" s="6">
+        <v>200</v>
+      </c>
+      <c r="W261" s="6">
+        <v>67800</v>
+      </c>
+      <c r="X261" s="6">
+        <v>44070</v>
+      </c>
+      <c r="Y261" s="6">
+        <v>44272.95</v>
+      </c>
+      <c r="Z261" s="6">
+        <v>-1200</v>
+      </c>
+      <c r="AA261" s="6"/>
+      <c r="AB261" s="6">
+        <v>-2873.31</v>
+      </c>
+      <c r="AC261" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="7"/>
+      <c r="AE261" s="6">
+        <v>-803.99</v>
+      </c>
+      <c r="AF261" s="6">
+        <v>39395.65</v>
+      </c>
+      <c r="AG261" s="6">
+        <v>46486.87</v>
+      </c>
+      <c r="AH261" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI261" s="6">
+        <v>7091.22</v>
+      </c>
+      <c r="AJ261" s="6">
+        <v>46486.87</v>
+      </c>
+      <c r="AK261" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L262" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N262" s="4">
+        <v>12</v>
+      </c>
+      <c r="O262" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P262" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q262" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R262" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S262" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T262" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U262" s="6">
+        <v>50</v>
+      </c>
+      <c r="V262" s="6">
+        <v>600</v>
+      </c>
+      <c r="W262" s="6">
+        <v>203400</v>
+      </c>
+      <c r="X262" s="6">
+        <v>132210</v>
+      </c>
+      <c r="Y262" s="6">
+        <v>128704.29</v>
+      </c>
+      <c r="Z262" s="6">
+        <v>-12600</v>
+      </c>
+      <c r="AA262" s="6"/>
+      <c r="AB262" s="6">
+        <v>-8352.89</v>
+      </c>
+      <c r="AC262" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="7"/>
+      <c r="AE262" s="6">
+        <v>-2155.0300000000002</v>
+      </c>
+      <c r="AF262" s="6">
+        <v>105596.37</v>
+      </c>
+      <c r="AG262" s="6">
+        <v>124603.72</v>
+      </c>
+      <c r="AH262" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI262" s="6">
+        <v>19007.349999999999</v>
+      </c>
+      <c r="AJ262" s="6">
+        <v>124603.72</v>
+      </c>
+      <c r="AK262" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J263" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K263" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="L263" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M263" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N263" s="4">
+        <v>20</v>
+      </c>
+      <c r="O263" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P263" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q263" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R263" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S263" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T263" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U263" s="6">
+        <v>5</v>
+      </c>
+      <c r="V263" s="6">
+        <v>100</v>
+      </c>
+      <c r="W263" s="6">
+        <v>46400</v>
+      </c>
+      <c r="X263" s="6">
+        <v>30160</v>
+      </c>
+      <c r="Y263" s="6">
+        <v>29283.200000000001</v>
+      </c>
+      <c r="Z263" s="6">
+        <v>-4100</v>
+      </c>
+      <c r="AA263" s="6"/>
+      <c r="AB263" s="6">
+        <v>-2764.33</v>
+      </c>
+      <c r="AC263" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD263" s="7"/>
+      <c r="AE263" s="6">
+        <v>-448.38</v>
+      </c>
+      <c r="AF263" s="6">
+        <v>21970.49</v>
+      </c>
+      <c r="AG263" s="6">
+        <v>25925.18</v>
+      </c>
+      <c r="AH263" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI263" s="6">
+        <v>3954.69</v>
+      </c>
+      <c r="AJ263" s="6">
+        <v>25925.18</v>
+      </c>
+      <c r="AK263" s="8">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J264" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K264" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L264" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M264" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N264" s="4">
+        <v>20</v>
+      </c>
+      <c r="O264" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P264" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q264" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R264" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S264" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T264" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U264" s="6">
+        <v>15</v>
+      </c>
+      <c r="V264" s="6">
+        <v>300</v>
+      </c>
+      <c r="W264" s="6">
+        <v>106500</v>
+      </c>
+      <c r="X264" s="6">
+        <v>69225</v>
+      </c>
+      <c r="Y264" s="6">
+        <v>70585.33</v>
+      </c>
+      <c r="Z264" s="6">
+        <v>-6300</v>
+      </c>
+      <c r="AA264" s="6"/>
+      <c r="AB264" s="6">
+        <v>-5413.88</v>
+      </c>
+      <c r="AC264" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="7"/>
+      <c r="AE264" s="6">
+        <v>-1177.43</v>
+      </c>
+      <c r="AF264" s="6">
+        <v>57694.02</v>
+      </c>
+      <c r="AG264" s="6">
+        <v>68078.94</v>
+      </c>
+      <c r="AH264" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI264" s="6">
+        <v>10384.92</v>
+      </c>
+      <c r="AJ264" s="6">
+        <v>68078.94</v>
+      </c>
+      <c r="AK264" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="265" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K265" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L265" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M265" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N265" s="4">
+        <v>20</v>
+      </c>
+      <c r="O265" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P265" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q265" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R265" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S265" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T265" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U265" s="6">
+        <v>5</v>
+      </c>
+      <c r="V265" s="6">
+        <v>100</v>
+      </c>
+      <c r="W265" s="6">
+        <v>34900</v>
+      </c>
+      <c r="X265" s="6">
+        <v>22685</v>
+      </c>
+      <c r="Y265" s="6">
+        <v>23076.66</v>
+      </c>
+      <c r="Z265" s="6">
+        <v>-2100</v>
+      </c>
+      <c r="AA265" s="6"/>
+      <c r="AB265" s="6">
+        <v>-1769.97</v>
+      </c>
+      <c r="AC265" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="7"/>
+      <c r="AE265" s="6">
+        <v>-384.13</v>
+      </c>
+      <c r="AF265" s="6">
+        <v>18822.560000000001</v>
+      </c>
+      <c r="AG265" s="6">
+        <v>22210.62</v>
+      </c>
+      <c r="AH265" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI265" s="6">
+        <v>3388.06</v>
+      </c>
+      <c r="AJ265" s="6">
+        <v>22210.62</v>
+      </c>
+      <c r="AK265" s="8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="266" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J266" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K266" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L266" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M266" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N266" s="4">
+        <v>20</v>
+      </c>
+      <c r="O266" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P266" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q266" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R266" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S266" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T266" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U266" s="6">
+        <v>5</v>
+      </c>
+      <c r="V266" s="6">
+        <v>100</v>
+      </c>
+      <c r="W266" s="6">
+        <v>33900</v>
+      </c>
+      <c r="X266" s="6">
+        <v>22035</v>
+      </c>
+      <c r="Y266" s="6">
+        <v>22582.06</v>
+      </c>
+      <c r="Z266" s="6">
+        <v>-3300</v>
+      </c>
+      <c r="AA266" s="6"/>
+      <c r="AB266" s="6">
+        <v>-1732.04</v>
+      </c>
+      <c r="AC266" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="7"/>
+      <c r="AE266" s="6">
+        <v>-351</v>
+      </c>
+      <c r="AF266" s="6">
+        <v>17199.02</v>
+      </c>
+      <c r="AG266" s="6">
+        <v>20294.84</v>
+      </c>
+      <c r="AH266" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI266" s="6">
+        <v>3095.82</v>
+      </c>
+      <c r="AJ266" s="6">
+        <v>20294.84</v>
+      </c>
+      <c r="AK266" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J267" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K267" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L267" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M267" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N267" s="4">
+        <v>20</v>
+      </c>
+      <c r="O267" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P267" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q267" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R267" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S267" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T267" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U267" s="6">
+        <v>5</v>
+      </c>
+      <c r="V267" s="6">
+        <v>100</v>
+      </c>
+      <c r="W267" s="6">
+        <v>35500</v>
+      </c>
+      <c r="X267" s="6">
+        <v>23075</v>
+      </c>
+      <c r="Y267" s="6">
+        <v>23515.21</v>
+      </c>
+      <c r="Z267" s="6">
+        <v>-600</v>
+      </c>
+      <c r="AA267" s="6"/>
+      <c r="AB267" s="6">
+        <v>-1803.61</v>
+      </c>
+      <c r="AC267" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="7"/>
+      <c r="AE267" s="6">
+        <v>-422.23</v>
+      </c>
+      <c r="AF267" s="6">
+        <v>20689.37</v>
+      </c>
+      <c r="AG267" s="6">
+        <v>24413.46</v>
+      </c>
+      <c r="AH267" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI267" s="6">
+        <v>3724.09</v>
+      </c>
+      <c r="AJ267" s="6">
+        <v>24413.46</v>
+      </c>
+      <c r="AK267" s="8">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="268" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J268" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K268" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L268" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M268" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N268" s="4">
+        <v>20</v>
+      </c>
+      <c r="O268" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P268" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q268" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R268" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S268" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T268" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U268" s="6">
+        <v>20</v>
+      </c>
+      <c r="V268" s="6">
+        <v>400</v>
+      </c>
+      <c r="W268" s="6">
+        <v>91500</v>
+      </c>
+      <c r="X268" s="6">
+        <v>59475</v>
+      </c>
+      <c r="Y268" s="6">
+        <v>58000.31</v>
+      </c>
+      <c r="Z268" s="6">
+        <v>-13600</v>
+      </c>
+      <c r="AA268" s="6"/>
+      <c r="AB268" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE268" s="6">
+        <v>-888.01</v>
+      </c>
+      <c r="AF268" s="6">
+        <v>43512.3</v>
+      </c>
+      <c r="AG268" s="6">
+        <v>51344.51</v>
+      </c>
+      <c r="AH268" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI268" s="6">
+        <v>7832.21</v>
+      </c>
+      <c r="AJ268" s="6">
+        <v>51344.51</v>
+      </c>
+      <c r="AK268" s="8">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J269" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K269" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L269" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M269" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N269" s="4">
+        <v>20</v>
+      </c>
+      <c r="O269" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P269" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q269" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R269" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S269" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T269" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U269" s="6">
+        <v>5</v>
+      </c>
+      <c r="V269" s="6">
+        <v>100</v>
+      </c>
+      <c r="W269" s="6">
+        <v>48000</v>
+      </c>
+      <c r="X269" s="6">
+        <v>31200</v>
+      </c>
+      <c r="Y269" s="6">
+        <v>33474.81</v>
+      </c>
+      <c r="Z269" s="6">
+        <v>-2000</v>
+      </c>
+      <c r="AA269" s="6"/>
+      <c r="AB269" s="6">
+        <v>-2172.5100000000002</v>
+      </c>
+      <c r="AC269" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="6">
+        <v>-100</v>
+      </c>
+      <c r="AE269" s="6">
+        <v>-584.04999999999995</v>
+      </c>
+      <c r="AF269" s="6">
+        <v>28618.25</v>
+      </c>
+      <c r="AG269" s="6">
+        <v>33769.54</v>
+      </c>
+      <c r="AH269" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI269" s="6">
+        <v>5151.29</v>
+      </c>
+      <c r="AJ269" s="6">
+        <v>33769.54</v>
+      </c>
+      <c r="AK269" s="8">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="270" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J270" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K270" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L270" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M270" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N270" s="4">
+        <v>14</v>
+      </c>
+      <c r="O270" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P270" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q270" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R270" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S270" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T270" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U270" s="6">
+        <v>5</v>
+      </c>
+      <c r="V270" s="6">
+        <v>70</v>
+      </c>
+      <c r="W270" s="6">
+        <v>50400</v>
+      </c>
+      <c r="X270" s="6">
+        <v>32760</v>
+      </c>
+      <c r="Y270" s="6">
+        <v>31730.73</v>
+      </c>
+      <c r="Z270" s="6">
+        <v>-5600</v>
+      </c>
+      <c r="AA270" s="6"/>
+      <c r="AB270" s="6">
+        <v>-2995.37</v>
+      </c>
+      <c r="AC270" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="6">
+        <v>-70</v>
+      </c>
+      <c r="AE270" s="6">
+        <v>-461.31</v>
+      </c>
+      <c r="AF270" s="6">
+        <v>22604.05</v>
+      </c>
+      <c r="AG270" s="6">
+        <v>26672.78</v>
+      </c>
+      <c r="AH270" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI270" s="6">
+        <v>4068.73</v>
+      </c>
+      <c r="AJ270" s="6">
+        <v>26672.78</v>
+      </c>
+      <c r="AK270" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K271" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L271" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M271" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N271" s="4">
+        <v>210</v>
+      </c>
+      <c r="O271" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P271" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q271" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R271" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S271" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T271" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U271" s="6">
+        <v>6</v>
+      </c>
+      <c r="V271" s="6">
+        <v>1260</v>
+      </c>
+      <c r="W271" s="7"/>
+      <c r="X271" s="6">
+        <v>483840</v>
+      </c>
+      <c r="Y271" s="7"/>
+      <c r="Z271" s="7"/>
+      <c r="AA271" s="7"/>
+      <c r="AB271" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="6">
+        <v>-26611.200000000001</v>
+      </c>
+      <c r="AD271" s="6">
+        <v>-1260</v>
+      </c>
+      <c r="AE271" s="6">
+        <v>-9119.3799999999992</v>
+      </c>
+      <c r="AF271" s="6">
+        <v>446849.42</v>
+      </c>
+      <c r="AG271" s="6">
+        <v>527282.31999999995</v>
+      </c>
+      <c r="AH271" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI271" s="6">
+        <v>80432.899999999994</v>
+      </c>
+      <c r="AJ271" s="6">
+        <v>527282.31999999995</v>
+      </c>
+      <c r="AK271" s="8">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="272" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J272" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K272" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L272" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M272" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N272" s="4">
+        <v>14</v>
+      </c>
+      <c r="O272" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P272" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q272" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R272" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S272" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T272" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U272" s="6">
+        <v>35</v>
+      </c>
+      <c r="V272" s="6">
+        <v>490</v>
+      </c>
+      <c r="W272" s="6">
+        <v>225960</v>
+      </c>
+      <c r="X272" s="6">
+        <v>146874</v>
+      </c>
+      <c r="Y272" s="6">
+        <v>167974.92</v>
+      </c>
+      <c r="Z272" s="6">
+        <v>-22540</v>
+      </c>
+      <c r="AA272" s="6"/>
+      <c r="AB272" s="6">
+        <v>-10901.54</v>
+      </c>
+      <c r="AC272" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="6">
+        <v>-490</v>
+      </c>
+      <c r="AE272" s="6">
+        <v>-2680.87</v>
+      </c>
+      <c r="AF272" s="6">
+        <v>131362.51</v>
+      </c>
+      <c r="AG272" s="6">
+        <v>155007.76</v>
+      </c>
+      <c r="AH272" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI272" s="6">
+        <v>23645.25</v>
+      </c>
+      <c r="AJ272" s="6">
+        <v>155007.76</v>
+      </c>
+      <c r="AK272" s="8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K273" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L273" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M273" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N273" s="4">
+        <v>14</v>
+      </c>
+      <c r="O273" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P273" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q273" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R273" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="S273" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T273" s="5">
+        <v>46043</v>
+      </c>
+      <c r="U273" s="6">
+        <v>5</v>
+      </c>
+      <c r="V273" s="6">
+        <v>70</v>
+      </c>
+      <c r="W273" s="6">
+        <v>32280</v>
+      </c>
+      <c r="X273" s="6">
+        <v>20982</v>
+      </c>
+      <c r="Y273" s="6">
+        <v>23996.41</v>
+      </c>
+      <c r="Z273" s="6">
+        <v>-3220</v>
+      </c>
+      <c r="AA273" s="6"/>
+      <c r="AB273" s="6">
+        <v>-1557.36</v>
+      </c>
+      <c r="AC273" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="6">
+        <v>-35</v>
+      </c>
+      <c r="AE273" s="6">
+        <v>-383.68</v>
+      </c>
+      <c r="AF273" s="6">
+        <v>18800.37</v>
+      </c>
+      <c r="AG273" s="6">
+        <v>22184.44</v>
+      </c>
+      <c r="AH273" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI273" s="6">
+        <v>3384.07</v>
+      </c>
+      <c r="AJ273" s="6">
+        <v>22184.44</v>
+      </c>
+      <c r="AK273" s="8">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K274" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L274" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M274" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N274" s="4">
+        <v>210</v>
+      </c>
+      <c r="O274" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P274" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q274" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R274" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S274" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T274" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U274" s="6">
+        <v>4</v>
+      </c>
+      <c r="V274" s="6">
+        <v>840</v>
+      </c>
+      <c r="W274" s="7"/>
+      <c r="X274" s="6">
+        <v>252000</v>
+      </c>
+      <c r="Y274" s="7"/>
+      <c r="Z274" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA274" s="6"/>
+      <c r="AB274" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC274" s="6">
+        <v>-13860</v>
+      </c>
+      <c r="AD274" s="6">
+        <v>-840</v>
+      </c>
+      <c r="AE274" s="6">
+        <v>-4746</v>
+      </c>
+      <c r="AF274" s="6">
+        <v>232554</v>
+      </c>
+      <c r="AG274" s="6">
+        <v>274413.71999999997</v>
+      </c>
+      <c r="AH274" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI274" s="6">
+        <v>41859.72</v>
+      </c>
+      <c r="AJ274" s="6">
+        <v>274413.71999999997</v>
+      </c>
+      <c r="AK274" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J275" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K275" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L275" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M275" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N275" s="4">
+        <v>16</v>
+      </c>
+      <c r="O275" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P275" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q275" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R275" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S275" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T275" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U275" s="6">
+        <v>10</v>
+      </c>
+      <c r="V275" s="6">
+        <v>160</v>
+      </c>
+      <c r="W275" s="6">
+        <v>68800</v>
+      </c>
+      <c r="X275" s="6">
+        <v>50960</v>
+      </c>
+      <c r="Y275" s="6">
+        <v>46644.2</v>
+      </c>
+      <c r="Z275" s="7"/>
+      <c r="AA275" s="7"/>
+      <c r="AB275" s="6">
+        <v>-3027.2</v>
+      </c>
+      <c r="AC275" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD275" s="6">
+        <v>-160</v>
+      </c>
+      <c r="AE275" s="6">
+        <v>-869.14</v>
+      </c>
+      <c r="AF275" s="6">
+        <v>42587.86</v>
+      </c>
+      <c r="AG275" s="6">
+        <v>50253.67</v>
+      </c>
+      <c r="AH275" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI275" s="6">
+        <v>7665.81</v>
+      </c>
+      <c r="AJ275" s="6">
+        <v>50253.67</v>
+      </c>
+      <c r="AK275" s="8">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="276" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K276" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="L276" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="M276" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N276" s="4">
+        <v>14</v>
+      </c>
+      <c r="O276" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P276" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q276" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R276" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S276" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T276" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U276" s="6">
+        <v>5</v>
+      </c>
+      <c r="V276" s="6">
+        <v>70</v>
+      </c>
+      <c r="W276" s="6">
+        <v>24300</v>
+      </c>
+      <c r="X276" s="6">
+        <v>15795</v>
+      </c>
+      <c r="Y276" s="6">
+        <v>16604.78</v>
+      </c>
+      <c r="Z276" s="6">
+        <v>-1120</v>
+      </c>
+      <c r="AA276" s="6"/>
+      <c r="AB276" s="6">
+        <v>-1077.6500000000001</v>
+      </c>
+      <c r="AC276" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD276" s="6">
+        <v>-70</v>
+      </c>
+      <c r="AE276" s="6">
+        <v>-286.74</v>
+      </c>
+      <c r="AF276" s="6">
+        <v>14050.39</v>
+      </c>
+      <c r="AG276" s="6">
+        <v>16579.46</v>
+      </c>
+      <c r="AH276" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI276" s="6">
+        <v>2529.0700000000002</v>
+      </c>
+      <c r="AJ276" s="6">
+        <v>16579.46</v>
+      </c>
+      <c r="AK276" s="8">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J277" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K277" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L277" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M277" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N277" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="O277" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P277" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q277" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R277" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S277" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T277" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U277" s="6">
+        <v>15</v>
+      </c>
+      <c r="V277" s="6">
+        <v>126</v>
+      </c>
+      <c r="W277" s="6">
+        <v>45000</v>
+      </c>
+      <c r="X277" s="6">
+        <v>29250</v>
+      </c>
+      <c r="Y277" s="6">
+        <v>30606.57</v>
+      </c>
+      <c r="Z277" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA277" s="6"/>
+      <c r="AB277" s="6">
+        <v>-1986.36</v>
+      </c>
+      <c r="AC277" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="6">
+        <v>-126</v>
+      </c>
+      <c r="AE277" s="6">
+        <v>-569.88</v>
+      </c>
+      <c r="AF277" s="6">
+        <v>27924.33</v>
+      </c>
+      <c r="AG277" s="6">
+        <v>32950.71</v>
+      </c>
+      <c r="AH277" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI277" s="6">
+        <v>5026.38</v>
+      </c>
+      <c r="AJ277" s="6">
+        <v>32950.71</v>
+      </c>
+      <c r="AK277" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I278" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J278" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K278" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L278" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M278" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N278" s="4">
+        <v>20</v>
+      </c>
+      <c r="O278" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P278" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q278" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R278" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="S278" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T278" s="5">
+        <v>46043</v>
+      </c>
+      <c r="U278" s="6">
+        <v>5</v>
+      </c>
+      <c r="V278" s="6">
+        <v>100</v>
+      </c>
+      <c r="W278" s="6">
+        <v>33900</v>
+      </c>
+      <c r="X278" s="6">
+        <v>22035</v>
+      </c>
+      <c r="Y278" s="6">
+        <v>22136.48</v>
+      </c>
+      <c r="Z278" s="6">
+        <v>-600</v>
+      </c>
+      <c r="AA278" s="6"/>
+      <c r="AB278" s="6">
+        <v>-1436.65</v>
+      </c>
+      <c r="AC278" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="6">
+        <v>-50</v>
+      </c>
+      <c r="AE278" s="6">
+        <v>-401</v>
+      </c>
+      <c r="AF278" s="6">
+        <v>19648.830000000002</v>
+      </c>
+      <c r="AG278" s="6">
+        <v>23185.62</v>
+      </c>
+      <c r="AH278" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI278" s="6">
+        <v>3536.79</v>
+      </c>
+      <c r="AJ278" s="6">
+        <v>23185.62</v>
+      </c>
+      <c r="AK278" s="8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="279" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I279" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J279" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K279" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L279" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M279" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N279" s="4">
+        <v>12</v>
+      </c>
+      <c r="O279" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P279" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q279" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R279" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="S279" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T279" s="5">
+        <v>46043</v>
+      </c>
+      <c r="U279" s="6">
+        <v>30</v>
+      </c>
+      <c r="V279" s="6">
+        <v>360</v>
+      </c>
+      <c r="W279" s="6">
+        <v>122040</v>
+      </c>
+      <c r="X279" s="6">
+        <v>79326</v>
+      </c>
+      <c r="Y279" s="6">
+        <v>77222.58</v>
+      </c>
+      <c r="Z279" s="6">
+        <v>-7560</v>
+      </c>
+      <c r="AA279" s="6"/>
+      <c r="AB279" s="6">
+        <v>-5011.7299999999996</v>
+      </c>
+      <c r="AC279" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD279" s="6">
+        <v>-180</v>
+      </c>
+      <c r="AE279" s="6">
+        <v>-1289.42</v>
+      </c>
+      <c r="AF279" s="6">
+        <v>63181.43</v>
+      </c>
+      <c r="AG279" s="6">
+        <v>74554.09</v>
+      </c>
+      <c r="AH279" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI279" s="6">
+        <v>11372.66</v>
+      </c>
+      <c r="AJ279" s="6">
+        <v>74554.09</v>
+      </c>
+      <c r="AK279" s="8">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="280" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I280" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J280" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K280" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L280" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M280" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N280" s="4">
+        <v>12</v>
+      </c>
+      <c r="O280" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P280" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q280" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R280" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="S280" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T280" s="5">
+        <v>46043</v>
+      </c>
+      <c r="U280" s="6">
+        <v>5</v>
+      </c>
+      <c r="V280" s="6">
+        <v>60</v>
+      </c>
+      <c r="W280" s="6">
+        <v>21540</v>
+      </c>
+      <c r="X280" s="6">
+        <v>14001</v>
+      </c>
+      <c r="Y280" s="6">
+        <v>14529.68</v>
+      </c>
+      <c r="Z280" s="6">
+        <v>-1260</v>
+      </c>
+      <c r="AA280" s="6"/>
+      <c r="AB280" s="6">
+        <v>-942.97</v>
+      </c>
+      <c r="AC280" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD280" s="6">
+        <v>-30</v>
+      </c>
+      <c r="AE280" s="6">
+        <v>-245.93</v>
+      </c>
+      <c r="AF280" s="6">
+        <v>12050.78</v>
+      </c>
+      <c r="AG280" s="6">
+        <v>14219.92</v>
+      </c>
+      <c r="AH280" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI280" s="6">
+        <v>2169.14</v>
+      </c>
+      <c r="AJ280" s="6">
+        <v>14219.92</v>
+      </c>
+      <c r="AK280" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="281" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K281" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L281" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M281" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N281" s="4">
+        <v>20</v>
+      </c>
+      <c r="O281" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P281" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q281" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R281" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S281" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T281" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U281" s="6">
+        <v>5</v>
+      </c>
+      <c r="V281" s="6">
+        <v>100</v>
+      </c>
+      <c r="W281" s="6">
+        <v>37600</v>
+      </c>
+      <c r="X281" s="6">
+        <v>24050</v>
+      </c>
+      <c r="Y281" s="6">
+        <v>24664.39</v>
+      </c>
+      <c r="Z281" s="6">
+        <v>-1100</v>
+      </c>
+      <c r="AA281" s="6"/>
+      <c r="AB281" s="6">
+        <v>-1891.75</v>
+      </c>
+      <c r="AC281" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD281" s="6">
+        <v>-100</v>
+      </c>
+      <c r="AE281" s="6">
+        <v>-431.45</v>
+      </c>
+      <c r="AF281" s="6">
+        <v>21141.19</v>
+      </c>
+      <c r="AG281" s="6">
+        <v>24946.6</v>
+      </c>
+      <c r="AH281" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI281" s="6">
+        <v>3805.41</v>
+      </c>
+      <c r="AJ281" s="6">
+        <v>24946.6</v>
+      </c>
+      <c r="AK281" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K282" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L282" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M282" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N282" s="4">
+        <v>20</v>
+      </c>
+      <c r="O282" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P282" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q282" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R282" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S282" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T282" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U282" s="6">
+        <v>5</v>
+      </c>
+      <c r="V282" s="6">
+        <v>100</v>
+      </c>
+      <c r="W282" s="6">
+        <v>37000</v>
+      </c>
+      <c r="X282" s="6">
+        <v>24050</v>
+      </c>
+      <c r="Y282" s="6">
+        <v>24375.54</v>
+      </c>
+      <c r="Z282" s="7"/>
+      <c r="AA282" s="7"/>
+      <c r="AB282" s="6">
+        <v>-2301.04</v>
+      </c>
+      <c r="AC282" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD282" s="6">
+        <v>-100</v>
+      </c>
+      <c r="AE282" s="6">
+        <v>-439.49</v>
+      </c>
+      <c r="AF282" s="6">
+        <v>21535.01</v>
+      </c>
+      <c r="AG282" s="6">
+        <v>25411.31</v>
+      </c>
+      <c r="AH282" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI282" s="6">
+        <v>3876.3</v>
+      </c>
+      <c r="AJ282" s="6">
+        <v>25411.31</v>
+      </c>
+      <c r="AK282" s="8">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="283" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J283" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K283" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L283" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M283" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N283" s="4">
+        <v>20</v>
+      </c>
+      <c r="O283" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P283" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q283" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R283" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="S283" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T283" s="5">
+        <v>46043</v>
+      </c>
+      <c r="U283" s="6">
+        <v>5</v>
+      </c>
+      <c r="V283" s="6">
+        <v>100</v>
+      </c>
+      <c r="W283" s="6">
+        <v>37000</v>
+      </c>
+      <c r="X283" s="6">
+        <v>24050</v>
+      </c>
+      <c r="Y283" s="6">
+        <v>24375.54</v>
+      </c>
+      <c r="Z283" s="7"/>
+      <c r="AA283" s="7"/>
+      <c r="AB283" s="6">
+        <v>-2301.04</v>
+      </c>
+      <c r="AC283" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="6">
+        <v>-50</v>
+      </c>
+      <c r="AE283" s="6">
+        <v>-440.49</v>
+      </c>
+      <c r="AF283" s="6">
+        <v>21584.01</v>
+      </c>
+      <c r="AG283" s="6">
+        <v>25469.13</v>
+      </c>
+      <c r="AH283" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI283" s="6">
+        <v>3885.12</v>
+      </c>
+      <c r="AJ283" s="6">
+        <v>25469.13</v>
+      </c>
+      <c r="AK283" s="8">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J284" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K284" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L284" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M284" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N284" s="4">
+        <v>20</v>
+      </c>
+      <c r="O284" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P284" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q284" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R284" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S284" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T284" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U284" s="6">
+        <v>20</v>
+      </c>
+      <c r="V284" s="6">
+        <v>400</v>
+      </c>
+      <c r="W284" s="6">
+        <v>138000</v>
+      </c>
+      <c r="X284" s="6">
+        <v>89700</v>
+      </c>
+      <c r="Y284" s="6">
+        <v>91570.27</v>
+      </c>
+      <c r="Z284" s="6">
+        <v>-2400</v>
+      </c>
+      <c r="AA284" s="6"/>
+      <c r="AB284" s="6">
+        <v>-7023.42</v>
+      </c>
+      <c r="AC284" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD284" s="6">
+        <v>-400</v>
+      </c>
+      <c r="AE284" s="6">
+        <v>-1634.94</v>
+      </c>
+      <c r="AF284" s="6">
+        <v>80111.91</v>
+      </c>
+      <c r="AG284" s="6">
+        <v>94532.05</v>
+      </c>
+      <c r="AH284" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI284" s="6">
+        <v>14420.14</v>
+      </c>
+      <c r="AJ284" s="6">
+        <v>94532.05</v>
+      </c>
+      <c r="AK284" s="8">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="285" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K285" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L285" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M285" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N285" s="4">
+        <v>20</v>
+      </c>
+      <c r="O285" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P285" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q285" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R285" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="S285" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T285" s="5">
+        <v>46043</v>
+      </c>
+      <c r="U285" s="6">
+        <v>5</v>
+      </c>
+      <c r="V285" s="6">
+        <v>100</v>
+      </c>
+      <c r="W285" s="6">
+        <v>34500</v>
+      </c>
+      <c r="X285" s="6">
+        <v>22425</v>
+      </c>
+      <c r="Y285" s="6">
+        <v>22892.57</v>
+      </c>
+      <c r="Z285" s="6">
+        <v>-600</v>
+      </c>
+      <c r="AA285" s="6"/>
+      <c r="AB285" s="6">
+        <v>-1755.86</v>
+      </c>
+      <c r="AC285" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD285" s="6">
+        <v>-50</v>
+      </c>
+      <c r="AE285" s="6">
+        <v>-409.73</v>
+      </c>
+      <c r="AF285" s="6">
+        <v>20076.98</v>
+      </c>
+      <c r="AG285" s="6">
+        <v>23690.84</v>
+      </c>
+      <c r="AH285" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI285" s="6">
+        <v>3613.86</v>
+      </c>
+      <c r="AJ285" s="6">
+        <v>23690.84</v>
+      </c>
+      <c r="AK285" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N286" s="4">
+        <v>20</v>
+      </c>
+      <c r="O286" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P286" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q286" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R286" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S286" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T286" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U286" s="6">
+        <v>10</v>
+      </c>
+      <c r="V286" s="6">
+        <v>200</v>
+      </c>
+      <c r="W286" s="6">
+        <v>67800</v>
+      </c>
+      <c r="X286" s="6">
+        <v>44070</v>
+      </c>
+      <c r="Y286" s="6">
+        <v>45164.12</v>
+      </c>
+      <c r="Z286" s="6">
+        <v>-6600</v>
+      </c>
+      <c r="AA286" s="6"/>
+      <c r="AB286" s="6">
+        <v>-3464.08</v>
+      </c>
+      <c r="AC286" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD286" s="6">
+        <v>-200</v>
+      </c>
+      <c r="AE286" s="6">
+        <v>-698</v>
+      </c>
+      <c r="AF286" s="6">
+        <v>34202.04</v>
+      </c>
+      <c r="AG286" s="6">
+        <v>40358.410000000003</v>
+      </c>
+      <c r="AH286" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI286" s="6">
+        <v>6156.37</v>
+      </c>
+      <c r="AJ286" s="6">
+        <v>40358.410000000003</v>
+      </c>
+      <c r="AK286" s="8">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="287" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J287" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K287" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L287" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M287" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N287" s="4">
+        <v>20</v>
+      </c>
+      <c r="O287" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P287" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q287" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R287" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S287" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T287" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U287" s="6">
+        <v>10</v>
+      </c>
+      <c r="V287" s="6">
+        <v>200</v>
+      </c>
+      <c r="W287" s="6">
+        <v>62400</v>
+      </c>
+      <c r="X287" s="6">
+        <v>40560</v>
+      </c>
+      <c r="Y287" s="6">
+        <v>40264.5</v>
+      </c>
+      <c r="Z287" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA287" s="6"/>
+      <c r="AB287" s="6">
+        <v>-3088.28</v>
+      </c>
+      <c r="AC287" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD287" s="6">
+        <v>-200</v>
+      </c>
+      <c r="AE287" s="6">
+        <v>-739.52</v>
+      </c>
+      <c r="AF287" s="6">
+        <v>36236.699999999997</v>
+      </c>
+      <c r="AG287" s="6">
+        <v>42759.31</v>
+      </c>
+      <c r="AH287" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI287" s="6">
+        <v>6522.61</v>
+      </c>
+      <c r="AJ287" s="6">
+        <v>42759.31</v>
+      </c>
+      <c r="AK287" s="8">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="288" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L288" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M288" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N288" s="4">
+        <v>20</v>
+      </c>
+      <c r="O288" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P288" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q288" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R288" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S288" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T288" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U288" s="6">
+        <v>10</v>
+      </c>
+      <c r="V288" s="6">
+        <v>200</v>
+      </c>
+      <c r="W288" s="6">
+        <v>60400</v>
+      </c>
+      <c r="X288" s="6">
+        <v>39260</v>
+      </c>
+      <c r="Y288" s="6">
+        <v>39252.43</v>
+      </c>
+      <c r="Z288" s="6">
+        <v>-2600</v>
+      </c>
+      <c r="AA288" s="6"/>
+      <c r="AB288" s="6">
+        <v>-3010.65</v>
+      </c>
+      <c r="AC288" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="6">
+        <v>-200</v>
+      </c>
+      <c r="AE288" s="6">
+        <v>-668.84</v>
+      </c>
+      <c r="AF288" s="6">
+        <v>32772.94</v>
+      </c>
+      <c r="AG288" s="6">
+        <v>38672.07</v>
+      </c>
+      <c r="AH288" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI288" s="6">
+        <v>5899.13</v>
+      </c>
+      <c r="AJ288" s="6">
+        <v>38672.07</v>
+      </c>
+      <c r="AK288" s="8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K289" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L289" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M289" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N289" s="4">
+        <v>20</v>
+      </c>
+      <c r="O289" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P289" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q289" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R289" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S289" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T289" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U289" s="6">
+        <v>10</v>
+      </c>
+      <c r="V289" s="6">
+        <v>200</v>
+      </c>
+      <c r="W289" s="6">
+        <v>60200</v>
+      </c>
+      <c r="X289" s="6">
+        <v>39130</v>
+      </c>
+      <c r="Y289" s="6">
+        <v>38827.07</v>
+      </c>
+      <c r="Z289" s="6">
+        <v>-4800</v>
+      </c>
+      <c r="AA289" s="6"/>
+      <c r="AB289" s="6">
+        <v>-2978.03</v>
+      </c>
+      <c r="AC289" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD289" s="6">
+        <v>-200</v>
+      </c>
+      <c r="AE289" s="6">
+        <v>-616.98</v>
+      </c>
+      <c r="AF289" s="6">
+        <v>30232.06</v>
+      </c>
+      <c r="AG289" s="6">
+        <v>35673.83</v>
+      </c>
+      <c r="AH289" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI289" s="6">
+        <v>5441.77</v>
+      </c>
+      <c r="AJ289" s="6">
+        <v>35673.83</v>
+      </c>
+      <c r="AK289" s="8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J290" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K290" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="L290" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="M290" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N290" s="4">
+        <v>10</v>
+      </c>
+      <c r="O290" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P290" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q290" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R290" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S290" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T290" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U290" s="6">
+        <v>5</v>
+      </c>
+      <c r="V290" s="6">
+        <v>50</v>
+      </c>
+      <c r="W290" s="6">
+        <v>14450</v>
+      </c>
+      <c r="X290" s="6">
+        <v>9392.5</v>
+      </c>
+      <c r="Y290" s="6">
+        <v>9514.98</v>
+      </c>
+      <c r="Z290" s="6">
+        <v>-1200</v>
+      </c>
+      <c r="AA290" s="6"/>
+      <c r="AB290" s="6">
+        <v>-729.8</v>
+      </c>
+      <c r="AC290" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD290" s="6">
+        <v>-50</v>
+      </c>
+      <c r="AE290" s="6">
+        <v>-150.69999999999999</v>
+      </c>
+      <c r="AF290" s="6">
+        <v>7384.48</v>
+      </c>
+      <c r="AG290" s="6">
+        <v>8713.69</v>
+      </c>
+      <c r="AH290" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI290" s="6">
+        <v>1329.21</v>
+      </c>
+      <c r="AJ290" s="6">
+        <v>8713.69</v>
+      </c>
+      <c r="AK290" s="8">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="291" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J291" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K291" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L291" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M291" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N291" s="4">
+        <v>20</v>
+      </c>
+      <c r="O291" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P291" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q291" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="R291" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S291" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T291" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U291" s="6">
+        <v>5</v>
+      </c>
+      <c r="V291" s="6">
+        <v>100</v>
+      </c>
+      <c r="W291" s="6">
+        <v>37500</v>
+      </c>
+      <c r="X291" s="6">
+        <v>24375</v>
+      </c>
+      <c r="Y291" s="6">
+        <v>24186.62</v>
+      </c>
+      <c r="Z291" s="6">
+        <v>-1600</v>
+      </c>
+      <c r="AA291" s="6"/>
+      <c r="AB291" s="6">
+        <v>-1855.11</v>
+      </c>
+      <c r="AC291" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD291" s="6">
+        <v>-100</v>
+      </c>
+      <c r="AE291" s="6">
+        <v>-412.63</v>
+      </c>
+      <c r="AF291" s="6">
+        <v>20218.88</v>
+      </c>
+      <c r="AG291" s="6">
+        <v>23858.28</v>
+      </c>
+      <c r="AH291" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI291" s="6">
+        <v>3639.4</v>
+      </c>
+      <c r="AJ291" s="6">
+        <v>23858.28</v>
+      </c>
+      <c r="AK291" s="8">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J292" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K292" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L292" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M292" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N292" s="4">
+        <v>14</v>
+      </c>
+      <c r="O292" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P292" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q292" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R292" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S292" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T292" s="5">
+        <v>46042</v>
+      </c>
+      <c r="U292" s="6">
+        <v>5</v>
+      </c>
+      <c r="V292" s="6">
+        <v>70</v>
+      </c>
+      <c r="W292" s="6">
+        <v>32280</v>
+      </c>
+      <c r="X292" s="6">
+        <v>20982</v>
+      </c>
+      <c r="Y292" s="6">
+        <v>23996.41</v>
+      </c>
+      <c r="Z292" s="6">
+        <v>-3220</v>
+      </c>
+      <c r="AA292" s="6"/>
+      <c r="AB292" s="6">
+        <v>-1557.36</v>
+      </c>
+      <c r="AC292" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD292" s="6">
+        <v>-70</v>
+      </c>
+      <c r="AE292" s="6">
+        <v>-382.98</v>
+      </c>
+      <c r="AF292" s="6">
+        <v>18766.07</v>
+      </c>
+      <c r="AG292" s="6">
+        <v>22143.96</v>
+      </c>
+      <c r="AH292" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI292" s="6">
+        <v>3377.89</v>
+      </c>
+      <c r="AJ292" s="6">
+        <v>22143.96</v>
+      </c>
+      <c r="AK292" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="293" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J293" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K293" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L293" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M293" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N293" s="4">
+        <v>10</v>
+      </c>
+      <c r="O293" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P293" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q293" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R293" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S293" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T293" s="5">
+        <v>46042</v>
+      </c>
+      <c r="U293" s="6">
+        <v>5</v>
+      </c>
+      <c r="V293" s="6">
+        <v>50</v>
+      </c>
+      <c r="W293" s="6">
+        <v>21000</v>
+      </c>
+      <c r="X293" s="6">
+        <v>13650</v>
+      </c>
+      <c r="Y293" s="6">
+        <v>15654.83</v>
+      </c>
+      <c r="Z293" s="7"/>
+      <c r="AA293" s="7"/>
+      <c r="AB293" s="6">
+        <v>-1016</v>
+      </c>
+      <c r="AC293" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="6">
+        <v>-50</v>
+      </c>
+      <c r="AE293" s="6">
+        <v>-291.77999999999997</v>
+      </c>
+      <c r="AF293" s="6">
+        <v>14297.05</v>
+      </c>
+      <c r="AG293" s="6">
+        <v>16870.52</v>
+      </c>
+      <c r="AH293" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI293" s="6">
+        <v>2573.4699999999998</v>
+      </c>
+      <c r="AJ293" s="6">
+        <v>16870.52</v>
+      </c>
+      <c r="AK293" s="8">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="294" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J294" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K294" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L294" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M294" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N294" s="4">
+        <v>20</v>
+      </c>
+      <c r="O294" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P294" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q294" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R294" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S294" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T294" s="5">
+        <v>46042</v>
+      </c>
+      <c r="U294" s="6">
+        <v>15</v>
+      </c>
+      <c r="V294" s="6">
+        <v>300</v>
+      </c>
+      <c r="W294" s="6">
+        <v>101700</v>
+      </c>
+      <c r="X294" s="6">
+        <v>66105</v>
+      </c>
+      <c r="Y294" s="6">
+        <v>66409.42</v>
+      </c>
+      <c r="Z294" s="6">
+        <v>-1800</v>
+      </c>
+      <c r="AA294" s="6"/>
+      <c r="AB294" s="6">
+        <v>-4309.96</v>
+      </c>
+      <c r="AC294" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD294" s="6">
+        <v>-300</v>
+      </c>
+      <c r="AE294" s="6">
+        <v>-1199.99</v>
+      </c>
+      <c r="AF294" s="6">
+        <v>58799.47</v>
+      </c>
+      <c r="AG294" s="6">
+        <v>69383.37</v>
+      </c>
+      <c r="AH294" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI294" s="6">
+        <v>10583.9</v>
+      </c>
+      <c r="AJ294" s="6">
+        <v>69383.37</v>
+      </c>
+      <c r="AK294" s="8">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J295" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L295" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M295" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N295" s="4">
+        <v>12</v>
+      </c>
+      <c r="O295" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P295" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q295" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R295" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S295" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T295" s="5">
+        <v>46042</v>
+      </c>
+      <c r="U295" s="6">
+        <v>30</v>
+      </c>
+      <c r="V295" s="6">
+        <v>360</v>
+      </c>
+      <c r="W295" s="6">
+        <v>122040</v>
+      </c>
+      <c r="X295" s="6">
+        <v>79326</v>
+      </c>
+      <c r="Y295" s="6">
+        <v>77222.58</v>
+      </c>
+      <c r="Z295" s="6">
+        <v>-7560</v>
+      </c>
+      <c r="AA295" s="6"/>
+      <c r="AB295" s="6">
+        <v>-5011.7299999999996</v>
+      </c>
+      <c r="AC295" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD295" s="6">
+        <v>-360</v>
+      </c>
+      <c r="AE295" s="6">
+        <v>-1285.82</v>
+      </c>
+      <c r="AF295" s="6">
+        <v>63005.03</v>
+      </c>
+      <c r="AG295" s="6">
+        <v>74345.94</v>
+      </c>
+      <c r="AH295" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI295" s="6">
+        <v>11340.91</v>
+      </c>
+      <c r="AJ295" s="6">
+        <v>74345.94</v>
+      </c>
+      <c r="AK295" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="296" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K296" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L296" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M296" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N296" s="4">
+        <v>12</v>
+      </c>
+      <c r="O296" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P296" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q296" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R296" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S296" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T296" s="5">
+        <v>46042</v>
+      </c>
+      <c r="U296" s="6">
+        <v>4</v>
+      </c>
+      <c r="V296" s="6">
+        <v>48</v>
+      </c>
+      <c r="W296" s="6">
+        <v>17232</v>
+      </c>
+      <c r="X296" s="6">
+        <v>11200.8</v>
+      </c>
+      <c r="Y296" s="6">
+        <v>11623.74</v>
+      </c>
+      <c r="Z296" s="6">
+        <v>-1008</v>
+      </c>
+      <c r="AA296" s="6"/>
+      <c r="AB296" s="6">
+        <v>-754.38</v>
+      </c>
+      <c r="AC296" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD296" s="6">
+        <v>-48</v>
+      </c>
+      <c r="AE296" s="6">
+        <v>-196.27</v>
+      </c>
+      <c r="AF296" s="6">
+        <v>9617.09</v>
+      </c>
+      <c r="AG296" s="6">
+        <v>11348.17</v>
+      </c>
+      <c r="AH296" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI296" s="6">
+        <v>1731.08</v>
+      </c>
+      <c r="AJ296" s="6">
+        <v>11348.17</v>
+      </c>
+      <c r="AK296" s="8">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J297" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K297" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L297" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M297" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N297" s="4">
+        <v>10</v>
+      </c>
+      <c r="O297" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P297" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q297" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R297" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S297" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T297" s="5">
+        <v>46042</v>
+      </c>
+      <c r="U297" s="6">
+        <v>4</v>
+      </c>
+      <c r="V297" s="6">
+        <v>40</v>
+      </c>
+      <c r="W297" s="6">
+        <v>15040</v>
+      </c>
+      <c r="X297" s="6">
+        <v>9776</v>
+      </c>
+      <c r="Y297" s="6">
+        <v>9936.24</v>
+      </c>
+      <c r="Z297" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA297" s="6"/>
+      <c r="AB297" s="6">
+        <v>-762.11</v>
+      </c>
+      <c r="AC297" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD297" s="6">
+        <v>-40</v>
+      </c>
+      <c r="AE297" s="6">
+        <v>-182.68</v>
+      </c>
+      <c r="AF297" s="6">
+        <v>8951.4500000000007</v>
+      </c>
+      <c r="AG297" s="6">
+        <v>10562.71</v>
+      </c>
+      <c r="AH297" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI297" s="6">
+        <v>1611.26</v>
+      </c>
+      <c r="AJ297" s="6">
+        <v>10562.71</v>
+      </c>
+      <c r="AK297" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J298" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K298" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L298" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M298" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N298" s="4">
+        <v>20</v>
+      </c>
+      <c r="O298" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P298" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q298" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R298" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S298" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T298" s="5">
+        <v>46042</v>
+      </c>
+      <c r="U298" s="6">
+        <v>4</v>
+      </c>
+      <c r="V298" s="6">
+        <v>80</v>
+      </c>
+      <c r="W298" s="6">
+        <v>28560</v>
+      </c>
+      <c r="X298" s="6">
+        <v>18564</v>
+      </c>
+      <c r="Y298" s="6">
+        <v>19463.21</v>
+      </c>
+      <c r="Z298" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA298" s="6"/>
+      <c r="AB298" s="6">
+        <v>-1492.82</v>
+      </c>
+      <c r="AC298" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD298" s="6">
+        <v>-80</v>
+      </c>
+      <c r="AE298" s="6">
+        <v>-357.81</v>
+      </c>
+      <c r="AF298" s="6">
+        <v>17532.580000000002</v>
+      </c>
+      <c r="AG298" s="6">
+        <v>20688.439999999999</v>
+      </c>
+      <c r="AH298" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI298" s="6">
+        <v>3155.86</v>
+      </c>
+      <c r="AJ298" s="6">
+        <v>20688.439999999999</v>
+      </c>
+      <c r="AK298" s="8">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="299" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J299" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K299" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L299" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M299" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N299" s="4">
+        <v>20</v>
+      </c>
+      <c r="O299" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P299" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q299" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R299" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="S299" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T299" s="5">
+        <v>46042</v>
+      </c>
+      <c r="U299" s="6">
+        <v>4</v>
+      </c>
+      <c r="V299" s="6">
+        <v>80</v>
+      </c>
+      <c r="W299" s="6">
+        <v>30080</v>
+      </c>
+      <c r="X299" s="6">
+        <v>19240</v>
+      </c>
+      <c r="Y299" s="6">
+        <v>19731.509999999998</v>
+      </c>
+      <c r="Z299" s="6">
+        <v>-880</v>
+      </c>
+      <c r="AA299" s="6"/>
+      <c r="AB299" s="6">
+        <v>-1513.4</v>
+      </c>
+      <c r="AC299" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD299" s="6">
+        <v>-80</v>
+      </c>
+      <c r="AE299" s="6">
+        <v>-345.16</v>
+      </c>
+      <c r="AF299" s="6">
+        <v>16912.95</v>
+      </c>
+      <c r="AG299" s="6">
+        <v>19957.28</v>
+      </c>
+      <c r="AH299" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI299" s="6">
+        <v>3044.33</v>
+      </c>
+      <c r="AJ299" s="6">
+        <v>19957.28</v>
+      </c>
+      <c r="AK299" s="8">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K300" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L300" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M300" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N300" s="4">
+        <v>14</v>
+      </c>
+      <c r="O300" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P300" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q300" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R300" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="S300" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T300" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U300" s="6">
+        <v>25</v>
+      </c>
+      <c r="V300" s="6">
+        <v>350</v>
+      </c>
+      <c r="W300" s="6">
+        <v>150200</v>
+      </c>
+      <c r="X300" s="6">
+        <v>97630</v>
+      </c>
+      <c r="Y300" s="6">
+        <v>99300.29</v>
+      </c>
+      <c r="Z300" s="6">
+        <v>-5600</v>
+      </c>
+      <c r="AA300" s="6"/>
+      <c r="AB300" s="6">
+        <v>-6444.57</v>
+      </c>
+      <c r="AC300" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD300" s="7"/>
+      <c r="AE300" s="6">
+        <v>-1745.11</v>
+      </c>
+      <c r="AF300" s="6">
+        <v>85510.61</v>
+      </c>
+      <c r="AG300" s="6">
+        <v>100902.52</v>
+      </c>
+      <c r="AH300" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI300" s="6">
+        <v>15391.91</v>
+      </c>
+      <c r="AJ300" s="6">
+        <v>100902.52</v>
+      </c>
+      <c r="AK300" s="8">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="301" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K301" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L301" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M301" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N301" s="4">
+        <v>20</v>
+      </c>
+      <c r="O301" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P301" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q301" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R301" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="S301" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T301" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U301" s="6">
+        <v>3</v>
+      </c>
+      <c r="V301" s="6">
+        <v>60</v>
+      </c>
+      <c r="W301" s="6">
+        <v>23400</v>
+      </c>
+      <c r="X301" s="6">
+        <v>16380</v>
+      </c>
+      <c r="Y301" s="6">
+        <v>16059.59</v>
+      </c>
+      <c r="Z301" s="6">
+        <v>-660</v>
+      </c>
+      <c r="AA301" s="6"/>
+      <c r="AB301" s="6">
+        <v>-1042.26</v>
+      </c>
+      <c r="AC301" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD301" s="7"/>
+      <c r="AE301" s="6">
+        <v>-287.14999999999998</v>
+      </c>
+      <c r="AF301" s="6">
+        <v>14070.18</v>
+      </c>
+      <c r="AG301" s="6">
+        <v>16602.810000000001</v>
+      </c>
+      <c r="AH301" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI301" s="6">
+        <v>2532.63</v>
+      </c>
+      <c r="AJ301" s="6">
+        <v>16602.810000000001</v>
+      </c>
+      <c r="AK301" s="8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K302" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L302" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M302" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N302" s="4">
+        <v>10</v>
+      </c>
+      <c r="O302" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P302" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q302" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R302" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="S302" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T302" s="5">
+        <v>46049</v>
+      </c>
+      <c r="U302" s="6">
+        <v>25</v>
+      </c>
+      <c r="V302" s="6">
+        <v>250</v>
+      </c>
+      <c r="W302" s="6">
+        <v>105000</v>
+      </c>
+      <c r="X302" s="6">
+        <v>68250</v>
+      </c>
+      <c r="Y302" s="6">
+        <v>78274.16</v>
+      </c>
+      <c r="Z302" s="7"/>
+      <c r="AA302" s="7"/>
+      <c r="AB302" s="6">
+        <v>-5079.9799999999996</v>
+      </c>
+      <c r="AC302" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD302" s="7"/>
+      <c r="AE302" s="6">
+        <v>-1463.88</v>
+      </c>
+      <c r="AF302" s="6">
+        <v>71730.3</v>
+      </c>
+      <c r="AG302" s="6">
+        <v>84641.75</v>
+      </c>
+      <c r="AH302" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI302" s="6">
+        <v>12911.45</v>
+      </c>
+      <c r="AJ302" s="6">
+        <v>84641.75</v>
+      </c>
+      <c r="AK302" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K303" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L303" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M303" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N303" s="4">
+        <v>20</v>
+      </c>
+      <c r="O303" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P303" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q303" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R303" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S303" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T303" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U303" s="6">
+        <v>5</v>
+      </c>
+      <c r="V303" s="6">
+        <v>100</v>
+      </c>
+      <c r="W303" s="6">
+        <v>42000</v>
+      </c>
+      <c r="X303" s="6">
+        <v>27300</v>
+      </c>
+      <c r="Y303" s="6">
+        <v>29308.61</v>
+      </c>
+      <c r="Z303" s="6">
+        <v>-1100</v>
+      </c>
+      <c r="AA303" s="6"/>
+      <c r="AB303" s="6">
+        <v>-1902.12</v>
+      </c>
+      <c r="AC303" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD303" s="6">
+        <v>-100</v>
+      </c>
+      <c r="AE303" s="6">
+        <v>-524.13</v>
+      </c>
+      <c r="AF303" s="6">
+        <v>25682.36</v>
+      </c>
+      <c r="AG303" s="6">
+        <v>30305.18</v>
+      </c>
+      <c r="AH303" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI303" s="6">
+        <v>4622.82</v>
+      </c>
+      <c r="AJ303" s="6">
+        <v>30305.18</v>
+      </c>
+      <c r="AK303" s="8">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:37" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J304" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K304" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L304" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M304" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N304" s="4">
+        <v>20</v>
+      </c>
+      <c r="O304" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P304" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q304" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R304" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S304" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T304" s="5">
+        <v>46038</v>
+      </c>
+      <c r="U304" s="6">
+        <v>3</v>
+      </c>
+      <c r="V304" s="6">
+        <v>60</v>
+      </c>
+      <c r="W304" s="6">
+        <v>17220</v>
+      </c>
+      <c r="X304" s="6">
+        <v>11193</v>
+      </c>
+      <c r="Y304" s="6">
+        <v>11170.85</v>
+      </c>
+      <c r="Z304" s="6">
+        <v>-1440</v>
+      </c>
+      <c r="AA304" s="6"/>
+      <c r="AB304" s="6">
+        <v>-856.8</v>
+      </c>
+      <c r="AC304" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD304" s="6">
+        <v>-60</v>
+      </c>
+      <c r="AE304" s="6">
+        <v>-176.28</v>
+      </c>
+      <c r="AF304" s="6">
+        <v>8637.77</v>
+      </c>
+      <c r="AG304" s="6">
+        <v>10192.57</v>
+      </c>
+      <c r="AH304" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI304" s="6">
+        <v>1554.8</v>
+      </c>
+      <c r="AJ304" s="6">
+        <v>10192.57</v>
+      </c>
+      <c r="AK304" s="8">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>